--- a/TO DO LIST API Test cases,  API bug reports, UI test cases.xlsx
+++ b/TO DO LIST API Test cases,  API bug reports, UI test cases.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="311">
   <si>
     <r>
       <rPr>
@@ -2008,25 +2008,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>To add task long title
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>The possibility of creating task with long title. (256 characters)
+When we try to create the task with too long title we get 500 Error.
 (Send POST request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-      </rPr>
-      <t>1) To create pre-request (JS) to install variable {{randomString}} not to create title by hand :</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">
-function randomString(length, dataSet = 'abcdefghijklmnopqrstuvwxyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ') 
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1) To create pre-request (JS) to install variable {{randomString}} not to create title by hand :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">function randomString(length, dataSet = 'abcdefghijklmnopqrstuvwxyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ') 
 {
     randomString = "";
     for (let i = 0; i &lt; length; i++)
-        randomString += dataSet.charAt(Math.floor(Math.random() * dataSet.length));
+       randomString += dataSet.charAt(Math.floor(Math.random() * dataSet.length));
     return randomString;
 }
 pm.collectionVariables.set('randomString', randomString(256));
@@ -2034,32 +2043,35 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-      </rPr>
-      <t>2) To complete a Body of request:</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">
-{
- "title": null,
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">2) To complete a Body of request:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+ "title": "{{randomString}}",
  "completed": false
 }
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-      </rPr>
-      <t xml:space="preserve">3) To  send request using method POST </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://sky-todo-list.herokuapp.com</t>
-    </r>
+        <color theme="1"/>
+      </rPr>
+      <t>3) To  send request using method POST https://sky-todo-list.herokuapp.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Opened</t>
   </si>
   <si>
     <t>4) To check status code</t>
@@ -2084,7 +2096,11 @@
 }</t>
   </si>
   <si>
-    <t>To add task null title
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>The possibility of creating task with null title
+When we try to create the task with null title the task is succesfully created.
 (Send POST request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
@@ -2147,7 +2163,11 @@
 }</t>
   </si>
   <si>
-    <t>To add task empty title
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>The possibility of creating task with empty title
+When we try to create the task with empty title the task is succesfully created.(201 Status)
 (Send POST request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
@@ -2198,7 +2218,12 @@
 }</t>
   </si>
   <si>
-    <t>To change task title to long title
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>The possibility of changing task title to long title.
+There is a necessary pre-condition: To create a task with valid title;
+The next step is attemption to change title to long title. (Getting 500 Error)
 (Send PATCH request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
@@ -2306,7 +2331,12 @@
 }</t>
   </si>
   <si>
-    <t>To change task title to  null title
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>The possibility of changing task title to null title.
+There is a necessary pre-condition: To create a task with valid title;
+The next step is attemption to change title to null title. (Getting 201 Status)
 (Send PATCH request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
@@ -2417,7 +2447,12 @@
 }</t>
   </si>
   <si>
-    <t>To change  task  title to empty title
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>The possibility of changing task title to empty title.
+There is a necessary pre-condition: To create a task with valid title;
+The next step is attemption to change title to emptyl title. (Getting 201 Status)
 (Send PATCH request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
@@ -2524,7 +2559,9 @@
     <t>3.17</t>
   </si>
   <si>
-    <t>To delete non-existent task
+    <t>The possibility of deleting non-existent task.
+There is a necessary pre-condition: To create a task with valid title and delete this task.
+The next step is attemption to delete previously deleted task. (Getting 204 Status)
 (Send DELETE request)
 Postman -&gt; Body -&gt; raw -&gt; JSON</t>
   </si>
@@ -2579,18 +2616,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">) To  send request using method DELETE
+      <t xml:space="preserve">2) To  send request using method DELETE
 </t>
     </r>
     <r>
@@ -2612,7 +2641,7 @@
     </r>
   </si>
   <si>
-    <t>HTTP Status:204 No content</t>
+    <t>HTTP Status: 204 No content</t>
   </si>
   <si>
     <t>{
@@ -3592,10 +3621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3680,10 +3706,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -4018,7 +4040,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4261,53 +4283,57 @@
     <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="14" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4317,13 +4343,13 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4332,7 +4358,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4347,7 +4373,7 @@
     <xf borderId="0" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -6179,15 +6205,12 @@
     <mergeCell ref="E52:E54"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="E55:E57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
     <mergeCell ref="D63:D66"/>
     <mergeCell ref="E63:E66"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
@@ -6196,17 +6219,18 @@
     <mergeCell ref="E59:E62"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A75:J75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:D2"/>
@@ -6250,6 +6274,8 @@
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="J28:J31"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A75:J75"/>
     <mergeCell ref="J39:J42"/>
     <mergeCell ref="J49:J51"/>
     <mergeCell ref="J52:J54"/>
@@ -6312,7 +6338,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="1" max="1" width="9.38"/>
     <col customWidth="1" min="2" max="2" width="12.38"/>
     <col customWidth="1" min="3" max="3" width="18.25"/>
     <col customWidth="1" min="4" max="4" width="61.88"/>
@@ -6344,71 +6370,79 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="92">
-        <v>44986.0</v>
+      <c r="A2" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
+      <c r="G2" s="87" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="85"/>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="D3" s="95" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="96" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G3" s="85"/>
     </row>
     <row r="4">
       <c r="A4" s="97"/>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
       <c r="D4" s="98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G4" s="85"/>
     </row>
     <row r="5">
-      <c r="A5" s="92">
-        <v>45017.0</v>
+      <c r="A5" s="92" t="s">
+        <v>153</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D5" s="101" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
+      <c r="G5" s="87" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
       <c r="D6" s="95" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" s="96" t="s">
         <v>41</v>
@@ -6416,43 +6450,48 @@
       <c r="F6" s="96" t="s">
         <v>22</v>
       </c>
+      <c r="G6" s="85"/>
     </row>
     <row r="7">
       <c r="A7" s="97"/>
       <c r="B7" s="97"/>
       <c r="C7" s="97"/>
       <c r="D7" s="98" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F7" s="103" t="s">
-        <v>156</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G7" s="97"/>
     </row>
     <row r="8">
-      <c r="A8" s="92">
-        <v>45047.0</v>
+      <c r="A8" s="92" t="s">
+        <v>160</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="95" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E9" s="96" t="s">
         <v>41</v>
@@ -6460,107 +6499,119 @@
       <c r="F9" s="96" t="s">
         <v>22</v>
       </c>
+      <c r="G9" s="85"/>
     </row>
     <row r="10">
       <c r="A10" s="97"/>
       <c r="B10" s="97"/>
       <c r="C10" s="97"/>
       <c r="D10" s="98" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G10" s="97"/>
     </row>
     <row r="11">
-      <c r="A11" s="92">
-        <v>45201.0</v>
+      <c r="A11" s="92" t="s">
+        <v>165</v>
       </c>
       <c r="B11" s="87" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>162</v>
+        <v>166</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>167</v>
       </c>
       <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="105" t="s">
-        <v>163</v>
+      <c r="D12" s="106" t="s">
+        <v>168</v>
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13">
       <c r="A13" s="85"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
       <c r="D13" s="95" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E13" s="96" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G13" s="85"/>
     </row>
     <row r="14">
       <c r="A14" s="97"/>
       <c r="B14" s="97"/>
       <c r="C14" s="97"/>
       <c r="D14" s="98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E14" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>150</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="97"/>
     </row>
     <row r="15">
-      <c r="A15" s="92">
-        <v>45232.0</v>
+      <c r="A15" s="92" t="s">
+        <v>170</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="104" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>172</v>
       </c>
       <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
-      <c r="D16" s="105" t="s">
-        <v>167</v>
+      <c r="D16" s="106" t="s">
+        <v>173</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="17">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
       <c r="D17" s="95" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E17" s="96" t="s">
         <v>41</v>
@@ -6568,53 +6619,59 @@
       <c r="F17" s="96" t="s">
         <v>22</v>
       </c>
+      <c r="G17" s="85"/>
     </row>
     <row r="18">
       <c r="A18" s="97"/>
       <c r="B18" s="97"/>
       <c r="C18" s="97"/>
       <c r="D18" s="98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F18" s="103" t="s">
-        <v>169</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G18" s="97"/>
     </row>
     <row r="19">
-      <c r="A19" s="92">
-        <v>45262.0</v>
+      <c r="A19" s="92" t="s">
+        <v>176</v>
       </c>
       <c r="B19" s="87" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="104" t="s">
-        <v>171</v>
+        <v>177</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="85"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
-      <c r="D20" s="105" t="s">
-        <v>172</v>
+      <c r="D20" s="106" t="s">
+        <v>179</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
     </row>
     <row r="21">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
       <c r="D21" s="95" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>41</v>
@@ -6622,89 +6679,99 @@
       <c r="F21" s="96" t="s">
         <v>22</v>
       </c>
+      <c r="G21" s="85"/>
     </row>
     <row r="22">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
       <c r="C22" s="97"/>
       <c r="D22" s="98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E22" s="99" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F22" s="103" t="s">
-        <v>173</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G22" s="97"/>
     </row>
     <row r="23">
-      <c r="A23" s="87" t="s">
-        <v>174</v>
+      <c r="A23" s="92" t="s">
+        <v>181</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>183</v>
       </c>
       <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
-      <c r="D24" s="105" t="s">
-        <v>177</v>
+      <c r="D24" s="106" t="s">
+        <v>184</v>
       </c>
       <c r="E24" s="96"/>
       <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
     </row>
     <row r="25">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="95" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E25" s="96" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="96" t="s">
-        <v>178</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G25" s="85"/>
     </row>
     <row r="26">
       <c r="A26" s="97"/>
       <c r="B26" s="97"/>
       <c r="C26" s="97"/>
       <c r="D26" s="98" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2 G5 G8 G11 G15 G19 G23">
+      <formula1>"Opened,Deferred,Rejected,Assigned"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2 B5 B8 B11 B15 B19 B23">
       <formula1>"Blocker,High,Medium,Low,Trivial"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D5"/>
-    <hyperlink r:id="rId3" ref="D8"/>
-    <hyperlink r:id="rId4" ref="D12"/>
-    <hyperlink r:id="rId5" ref="D16"/>
-    <hyperlink r:id="rId6" ref="D20"/>
-    <hyperlink r:id="rId7" ref="D24"/>
+    <hyperlink r:id="rId1" ref="D5"/>
+    <hyperlink r:id="rId2" ref="D8"/>
+    <hyperlink r:id="rId3" ref="D12"/>
+    <hyperlink r:id="rId4" ref="D16"/>
+    <hyperlink r:id="rId5" ref="D20"/>
+    <hyperlink r:id="rId6" ref="D24"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6731,1723 +6798,1723 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="106" t="s">
+      <c r="A1" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="106" t="s">
+      <c r="D1" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="106" t="s">
+      <c r="F1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="107" t="s">
-        <v>185</v>
+      <c r="H1" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="109" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110" t="s">
-        <v>187</v>
+      <c r="A2" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="111">
+      <c r="A3" s="113">
         <v>1.0</v>
       </c>
-      <c r="B3" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="107" t="s">
+      <c r="D3" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="F4" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="107" t="s">
+      <c r="F4" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" s="107" t="s">
+      <c r="C9" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="111">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="111" t="s">
+      <c r="E9" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="F10" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="109"/>
+      <c r="H11" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="113">
+        <v>4.0</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="114" t="s">
+      <c r="D19" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="F10" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" s="111" t="s">
+      <c r="H19" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="113">
+        <v>5.0</v>
+      </c>
+      <c r="B24" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" s="111" t="s">
+      <c r="C24" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="111">
-        <v>3.0</v>
-      </c>
-      <c r="B14" s="111" t="s">
+      <c r="E24" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="110" t="s">
+      <c r="H25" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="G26" s="109"/>
+      <c r="H26" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="113" t="s">
+      <c r="G27" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" s="107" t="s">
+      <c r="H27" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="109"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="113">
+        <v>6.0</v>
+      </c>
+      <c r="B29" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="113">
+        <v>7.0</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="117" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="109"/>
+      <c r="H36" s="120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="123">
+        <v>8.0</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="109" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="109" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" s="113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="113">
+        <v>9.0</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="113"/>
+      <c r="H45" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="113"/>
+      <c r="H46" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="123">
+        <v>10.0</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="113">
+        <v>11.0</v>
+      </c>
+      <c r="B55" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" s="107" t="s">
+      <c r="C55" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="111">
-        <v>4.0</v>
-      </c>
-      <c r="B19" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="111" t="s">
+      <c r="E55" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="109"/>
+      <c r="H58" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="109"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="113">
+        <v>12.0</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" s="107" t="s">
+      <c r="D61" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="G63" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="109"/>
+      <c r="H65" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" s="109"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="113">
+        <v>13.0</v>
+      </c>
+      <c r="B68" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" s="107" t="s">
+      <c r="C68" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G22" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="111">
-        <v>5.0</v>
-      </c>
-      <c r="B24" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="111" t="s">
+      <c r="E68" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H69" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G70" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="H70" s="109"/>
+    </row>
+    <row r="71">
+      <c r="F71" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H71" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G72" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H72" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" s="109" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="113">
+        <v>14.0</v>
+      </c>
+      <c r="B75" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" s="113" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" s="107" t="s">
+      <c r="D75" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="F75" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="G75" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G76" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H76" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="F77" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G77" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="H78" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G79" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H79" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G80" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="113">
+        <v>15.0</v>
+      </c>
+      <c r="B82" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" s="107" t="s">
+      <c r="C82" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="107"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="111">
-        <v>6.0</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="111" t="s">
+      <c r="E82" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="G82" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G83" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H83" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="F84" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="F85" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H85" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="F86" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G86" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H86" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="F87" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G87" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H87" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="113">
+        <v>16.0</v>
+      </c>
+      <c r="B89" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="111" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" s="107" t="s">
+      <c r="D89" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="F89" s="114" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H89" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H90" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="F91" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G91" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H91" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="G92" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H92" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="F93" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H93" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="F94" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G94" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="113">
+        <v>17.0</v>
+      </c>
+      <c r="B96" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" s="107" t="s">
+      <c r="C96" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G32" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="111">
-        <v>7.0</v>
-      </c>
-      <c r="B34" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="115" t="s">
+      <c r="E96" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="F96" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="G96" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H97" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="F98" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G98" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H98" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="F99" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="G99" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H99" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="F100" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G100" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="F101" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G101" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H101" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="113">
+        <v>18.0</v>
+      </c>
+      <c r="B103" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="116" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" s="118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" s="119" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H35" s="118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" s="120" t="s">
+      <c r="D103" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="F103" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G103" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H103" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="F104" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G104" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H104" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="F105" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G105" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H105" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="F106" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="G106" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H106" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="F107" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G107" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H107" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="F108" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G108" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H108" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="113">
+        <v>19.0</v>
+      </c>
+      <c r="B110" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="F37" s="118" t="s">
+      <c r="C110" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="F110" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="G110" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H110" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="F111" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G111" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H111" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="F112" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G112" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H112" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="F113" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="G113" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H113" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="F114" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G114" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H114" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="F115" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G115" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H115" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="123">
+        <v>20.0</v>
+      </c>
+      <c r="B117" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="F117" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="G117" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H117" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="F118" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G118" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H118" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="F119" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G119" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H119" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="F120" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="G120" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H120" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G121" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="H121" s="109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="F122" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G122" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="H122" s="109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="113">
+        <v>21.0</v>
+      </c>
+      <c r="B124" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E124" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="F124" s="114" t="s">
+        <v>291</v>
+      </c>
+      <c r="G124" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H124" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="F125" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G125" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H125" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="F126" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G126" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H126" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="F127" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="G127" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="H127" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="F128" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G128" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H128" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="F129" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G129" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="H129" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="113">
+        <v>22.0</v>
+      </c>
+      <c r="B132" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="G37" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="H37" s="118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="121">
-        <v>8.0</v>
-      </c>
-      <c r="B39" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="111" t="s">
+      <c r="E132" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="F132" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="G132" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H132" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="F133" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="G133" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H133" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G134" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H134" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" s="115" t="s">
+        <v>297</v>
+      </c>
+      <c r="G135" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H135" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="F136" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="G136" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="H136" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="F137" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G137" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="H137" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="113">
+        <v>23.0</v>
+      </c>
+      <c r="B139" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C139" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" s="112" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" s="107" t="s">
+      <c r="D139" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="F139" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="G139" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H139" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="F140" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="G140" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H140" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="F141" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="G141" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="H141" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="G142" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="H142" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="F143" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="G143" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="H143" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="113"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="113"/>
+      <c r="E144" s="112"/>
+      <c r="F144" s="109"/>
+      <c r="G144" s="109"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="124" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="113">
+        <v>24.0</v>
+      </c>
+      <c r="B146" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="G42" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="H42" s="111" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="111">
-        <v>9.0</v>
-      </c>
-      <c r="B44" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="111" t="s">
+      <c r="C146" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="F44" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="G44" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="H44" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="111"/>
-      <c r="H45" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="G46" s="111"/>
-      <c r="H46" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="121">
-        <v>10.0</v>
-      </c>
-      <c r="B49" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H49" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" s="113" t="s">
-        <v>230</v>
-      </c>
-      <c r="G50" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H50" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="F52" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="G52" s="113" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" s="111" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="108" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="111">
-        <v>11.0</v>
-      </c>
-      <c r="B55" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="110" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="112" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H55" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="F56" s="113" t="s">
-        <v>235</v>
-      </c>
-      <c r="G56" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" s="110" t="s">
-        <v>237</v>
-      </c>
-      <c r="G57" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="H57" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="F58" s="107"/>
-      <c r="H58" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="F59" s="107"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="111">
-        <v>12.0</v>
-      </c>
-      <c r="B61" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="110" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="112" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H61" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="F62" s="113" t="s">
-        <v>235</v>
-      </c>
-      <c r="G62" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="H62" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="G63" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" s="113" t="s">
-        <v>242</v>
-      </c>
-      <c r="G64" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="H64" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" s="107"/>
-      <c r="H65" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" s="107"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="111">
-        <v>13.0</v>
-      </c>
-      <c r="B68" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="F68" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="G68" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G69" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="H69" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G70" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="H70" s="107"/>
-    </row>
-    <row r="71">
-      <c r="F71" s="113" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H71" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G72" s="107" t="s">
+      <c r="D146" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="112" t="s">
+        <v>305</v>
+      </c>
+      <c r="F146" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="G146" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="H146" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="F147" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="H72" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G73" s="107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="111">
-        <v>14.0</v>
-      </c>
-      <c r="B75" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="F75" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="G75" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H75" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="H76" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G77" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="H77" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" s="113" t="s">
-        <v>259</v>
-      </c>
-      <c r="G78" s="111" t="s">
-        <v>252</v>
-      </c>
-      <c r="H78" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G79" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="H79" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G80" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H80" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="111">
-        <v>15.0</v>
-      </c>
-      <c r="B82" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="G82" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H82" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G83" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H83" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H84" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" s="113" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H85" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G86" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H86" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="F87" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G87" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H87" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="111">
-        <v>16.0</v>
-      </c>
-      <c r="B89" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E89" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="F89" s="112" t="s">
-        <v>268</v>
-      </c>
-      <c r="G89" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H89" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G90" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H90" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G91" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H91" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" s="113" t="s">
-        <v>269</v>
-      </c>
-      <c r="G92" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H92" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="F93" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G93" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H93" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="F94" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G94" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H94" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="111">
-        <v>17.0</v>
-      </c>
-      <c r="B96" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="F96" s="112" t="s">
+      <c r="G147" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="G96" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H96" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="F97" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G97" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H97" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="F98" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G98" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H98" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="F99" s="113" t="s">
+      <c r="H147" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="F148" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="G148" s="109" t="s">
         <v>272</v>
       </c>
-      <c r="G99" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H99" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="F100" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G100" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H100" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="F101" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G101" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H101" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="111">
-        <v>18.0</v>
-      </c>
-      <c r="B103" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C103" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E103" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="F103" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="G103" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H103" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="F104" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G104" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H104" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="F105" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G105" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H105" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="F106" s="113" t="s">
-        <v>275</v>
-      </c>
-      <c r="G106" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H106" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="F107" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G107" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H107" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="F108" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G108" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H108" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="111">
-        <v>19.0</v>
-      </c>
-      <c r="B110" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="F110" s="112" t="s">
-        <v>277</v>
-      </c>
-      <c r="G110" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H110" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="F111" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G111" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H111" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G112" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H112" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="F113" s="113" t="s">
-        <v>278</v>
-      </c>
-      <c r="G113" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H113" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="F114" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G114" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H114" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="F115" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G115" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H115" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="121">
-        <v>20.0</v>
-      </c>
-      <c r="B117" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E117" s="110" t="s">
-        <v>279</v>
-      </c>
-      <c r="F117" s="112" t="s">
-        <v>280</v>
-      </c>
-      <c r="G117" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H117" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="F118" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G118" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H118" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="F119" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G119" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H119" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="F120" s="113" t="s">
-        <v>281</v>
-      </c>
-      <c r="G120" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H120" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="F121" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G121" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="H121" s="107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="F122" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G122" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="H122" s="107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="111">
-        <v>21.0</v>
-      </c>
-      <c r="B124" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C124" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E124" s="110" t="s">
-        <v>283</v>
-      </c>
-      <c r="F124" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="G124" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H124" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="F125" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G125" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H125" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="F126" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G126" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H126" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="F127" s="113" t="s">
-        <v>285</v>
-      </c>
-      <c r="G127" s="111" t="s">
-        <v>252</v>
-      </c>
-      <c r="H127" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="F128" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="G128" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H128" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="F129" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G129" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="H129" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="122" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="111">
-        <v>22.0</v>
-      </c>
-      <c r="B132" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E132" s="110" t="s">
-        <v>287</v>
-      </c>
-      <c r="F132" s="112" t="s">
-        <v>288</v>
-      </c>
-      <c r="G132" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H132" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="F133" s="113" t="s">
-        <v>289</v>
-      </c>
-      <c r="G133" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H133" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="F134" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G134" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H134" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="F135" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="G135" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H135" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="G136" s="107" t="s">
-        <v>292</v>
-      </c>
-      <c r="H136" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="F137" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="G137" s="107" t="s">
-        <v>292</v>
-      </c>
-      <c r="H137" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="111">
-        <v>23.0</v>
-      </c>
-      <c r="B139" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C139" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E139" s="110" t="s">
-        <v>287</v>
-      </c>
-      <c r="F139" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="G139" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H139" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="F140" s="113" t="s">
-        <v>289</v>
-      </c>
-      <c r="G140" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H140" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="F141" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="G141" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H141" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="F142" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="G142" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="H142" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="F143" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="G143" s="107" t="s">
-        <v>292</v>
-      </c>
-      <c r="H143" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="111"/>
-      <c r="B144" s="111"/>
-      <c r="C144" s="111"/>
-      <c r="D144" s="111"/>
-      <c r="E144" s="110"/>
-      <c r="F144" s="107"/>
-      <c r="G144" s="107"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="122" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="111">
-        <v>24.0</v>
-      </c>
-      <c r="B146" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C146" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E146" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="F146" s="112" t="s">
-        <v>299</v>
-      </c>
-      <c r="G146" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="H146" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="F147" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="G147" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="H147" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="F148" s="113" t="s">
-        <v>300</v>
-      </c>
-      <c r="G148" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="H148" s="107" t="s">
+      <c r="H148" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="149">
-      <c r="F149" s="113" t="s">
-        <v>301</v>
-      </c>
-      <c r="G149" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="H149" s="111" t="s">
+      <c r="F149" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="G149" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="H149" s="113" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="150">
-      <c r="F150" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="G150" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="H150" s="107" t="s">
+      <c r="F150" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="G150" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="H150" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="151">
-      <c r="F151" s="107"/>
-      <c r="G151" s="107"/>
+      <c r="F151" s="109"/>
+      <c r="G151" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="126">
